--- a/doc/02_外部設計/02_DB定義書_B3ビーチサンダル.xlsx
+++ b/doc/02_外部設計/02_DB定義書_B3ビーチサンダル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/koyama-shoma-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{AF254237-C8C7-4DBD-A8D7-4D97EC9EF65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234DF983-FAE9-4704-A0E6-8AB2EF27E15E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F90CFC-C319-4008-AF1A-44798C88D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="117">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -180,7 +180,7 @@
     <t>Customers</t>
   </si>
   <si>
-    <t>客様情報（お客様ID苗字１、名前１、苗字ふりがな１、名前ふりがな１、連絡先１、苗字２、名前２、苗字ふりがな２、名前ふりがな２、連絡先２、式希望日、備考）</t>
+    <t>客様情報（お客様ID、苗字１、名前１、苗字ふりがな１、名前ふりがな１、連絡先１、苗字２、名前２、苗字ふりがな２、名前ふりがな２、連絡先２、式希望日、備考）</t>
   </si>
   <si>
     <t>シミュレーション総合結果</t>
@@ -189,16 +189,43 @@
     <t>Simulation_Results</t>
   </si>
   <si>
+    <t>自動採番（主キー）、お客様ID、各シミュレーションのお客様IDが共通する自動採番されたID、総金額</t>
+    <rPh sb="46" eb="49">
+      <t>ソウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>シミュレーション素材_内装_テーブル</t>
   </si>
   <si>
     <t>Simulation_Tables</t>
   </si>
   <si>
+    <t>自動採番ID（主キー）、商品名、金額、素材に必要な画像のパス（相対パス）</t>
+    <rPh sb="12" eb="15">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>シミュレーション素材_内装_テーブルカバー</t>
   </si>
   <si>
     <t>Simulation_Tablecovers</t>
+  </si>
+  <si>
+    <t>自動採番（主キー）、商品名、金額、素材に必要な画像のパス（相対パス）</t>
+    <rPh sb="10" eb="13">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>シミュレーション素材_内装_イス</t>
@@ -219,16 +246,12 @@
     <t>Simulation_Flowers</t>
   </si>
   <si>
-    <t>シミュレーション素材_衣装_ドレス</t>
+    <t>シミュレーション素材_衣装</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Simulation_Dresses</t>
-  </si>
-  <si>
-    <t>シミュレーション素材_衣装_スーツ</t>
-  </si>
-  <si>
-    <t>Simulation_Suits</t>
+    <t>Simulation_Clothes</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>シミュレーション素材_ケーキ_全体</t>
@@ -241,6 +264,16 @@
   </si>
   <si>
     <t>Simulation_Caketops</t>
+  </si>
+  <si>
+    <t>自動採番（主キー）、商品名、金額、メモID</t>
+    <rPh sb="10" eb="13">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>シミュレーション素材_カード_招待状</t>
@@ -267,10 +300,17 @@
     <t>Orderlists</t>
   </si>
   <si>
+    <t>自動採番（主キー）、お客様ID、各シミュレーションのお客様IDが共通する自動採番されたID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>当日リスト</t>
   </si>
   <si>
     <t>Todolists</t>
+  </si>
+  <si>
+    <t>自動採番（主キー）、お客様ID、行動、予定時刻、終了時刻</t>
   </si>
   <si>
     <t>式後アンケート</t>
@@ -279,10 +319,38 @@
     <t>Aftersurveys</t>
   </si>
   <si>
+    <t>自動採番（主キー）、お客様ID、評価、良かった点、改善点</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カイゼンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>報告書</t>
   </si>
   <si>
     <t>Reports</t>
+  </si>
+  <si>
+    <t>自動採番（主キー）、お客様ID、</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>自動採番（主キー）、お客様ID、メモ欄（ながったるい文書）</t>
   </si>
   <si>
     <t>テーブル論理名</t>
@@ -364,6 +432,9 @@
   </si>
   <si>
     <t>customers_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
   </si>
   <si>
     <t>お客様苗字１</t>
@@ -453,6 +524,18 @@
     <t>Simulation_Fiowers</t>
   </si>
   <si>
+    <t>シミュレーション素材_衣装_ドレス</t>
+  </si>
+  <si>
+    <t>Simulation_Dresses</t>
+  </si>
+  <si>
+    <t>シミュレーション素材_衣装_スーツ</t>
+  </si>
+  <si>
+    <t>Simulation_Suits</t>
+  </si>
+  <si>
     <t>Aftersuveys</t>
   </si>
 </sst>
@@ -489,7 +572,8 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Yu Gothic"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -557,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,10 +976,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -901,7 +988,7 @@
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="6" max="6" width="78.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.149999999999999">
@@ -909,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5">
+    <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,7 +1053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -983,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="27">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -996,11 +1083,11 @@
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="26.45">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1013,249 +1100,283 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.5">
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.5">
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.5">
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5">
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5">
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5">
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.5">
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.5">
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="13.5">
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5">
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" ht="13.5">
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.5">
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" ht="13.5">
+      <c r="F22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" ht="13.5">
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" ht="13.5">
+      <c r="F24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" ht="13.5">
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" ht="13.5">
+      <c r="F26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1266,7 +1387,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="13.5">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1277,15 +1398,13 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" ht="13.5">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6">
@@ -1308,7 +1427,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1317,7 +1436,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1326,7 +1445,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1335,7 +1454,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1344,7 +1463,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1353,21 +1472,12 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1384,7 +1494,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -1399,7 +1509,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1521,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1425,31 +1535,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1460,22 +1570,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -1485,7 +1595,7 @@
         <v>create table Simulation_Dresses (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1503,7 +1613,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1521,7 +1631,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1539,7 +1649,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1557,7 +1667,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1575,7 +1685,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1593,7 +1703,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1611,7 +1721,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1629,7 +1739,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1647,7 +1757,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1665,7 +1775,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1683,7 +1793,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1701,7 +1811,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1719,7 +1829,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1737,7 +1847,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1755,7 +1865,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1773,7 +1883,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1791,7 +1901,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1809,7 +1919,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1827,7 +1937,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1845,9 +1955,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1974,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -1879,7 +1989,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +2001,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1905,31 +2015,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1940,22 +2050,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -1965,7 +2075,7 @@
         <v>create table Simulation_Suits (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1983,7 +2093,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2001,7 +2111,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2019,7 +2129,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2037,7 +2147,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2055,7 +2165,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2073,7 +2183,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2091,7 +2201,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2109,7 +2219,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2127,7 +2237,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2145,7 +2255,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2163,7 +2273,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2181,7 +2291,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2199,7 +2309,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2217,7 +2327,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2235,7 +2345,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2253,7 +2363,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2271,7 +2381,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2289,7 +2399,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2307,7 +2417,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2325,9 +2435,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2454,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -2359,7 +2469,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2371,7 +2481,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2385,31 +2495,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2420,22 +2530,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -2445,7 +2555,7 @@
         <v>create table Simulation_Cakes (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2463,7 +2573,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2481,7 +2591,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2499,7 +2609,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2517,7 +2627,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2535,7 +2645,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2553,7 +2663,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2571,7 +2681,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2589,7 +2699,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2607,7 +2717,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2625,7 +2735,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2643,7 +2753,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2661,7 +2771,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2679,7 +2789,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2697,7 +2807,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2715,7 +2825,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2733,7 +2843,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2751,7 +2861,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2769,7 +2879,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2787,7 +2897,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2805,9 +2915,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2934,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -2839,7 +2949,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2851,7 +2961,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,31 +2975,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2900,22 +3010,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -2925,7 +3035,7 @@
         <v>create table Simulation_Caketops (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2943,7 +3053,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2961,7 +3071,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2979,7 +3089,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2997,7 +3107,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3015,7 +3125,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3033,7 +3143,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3051,7 +3161,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3069,7 +3179,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3087,7 +3197,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3105,7 +3215,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3123,7 +3233,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3141,7 +3251,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3159,7 +3269,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3177,7 +3287,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3195,7 +3305,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3213,7 +3323,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3231,7 +3341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3249,7 +3359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3267,7 +3377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3285,9 +3395,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3414,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -3319,7 +3429,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3441,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3345,31 +3455,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3380,22 +3490,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -3405,7 +3515,7 @@
         <v>create table Simulation_Invitations (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3423,7 +3533,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3441,7 +3551,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3459,7 +3569,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3477,7 +3587,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3495,7 +3605,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3513,7 +3623,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3531,7 +3641,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3549,7 +3659,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3567,7 +3677,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3585,7 +3695,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3603,7 +3713,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3621,7 +3731,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3639,7 +3749,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3657,7 +3767,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3675,7 +3785,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3693,7 +3803,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3711,7 +3821,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3729,7 +3839,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3747,7 +3857,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3765,9 +3875,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3894,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -3799,7 +3909,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3811,7 +3921,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3825,31 +3935,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3860,22 +3970,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -3885,7 +3995,7 @@
         <v>create table Simulation_Nameplates (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3903,7 +4013,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3921,7 +4031,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3939,7 +4049,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3957,7 +4067,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3975,7 +4085,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3993,7 +4103,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4011,7 +4121,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4029,7 +4139,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4047,7 +4157,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4065,7 +4175,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4083,7 +4193,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4101,7 +4211,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4119,7 +4229,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4137,7 +4247,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4155,7 +4265,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4173,7 +4283,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4191,7 +4301,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4209,7 +4319,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4227,7 +4337,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4245,9 +4355,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4264,7 +4374,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -4279,7 +4389,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4291,7 +4401,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4305,31 +4415,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4340,22 +4450,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -4365,7 +4475,7 @@
         <v>create table Simulation_Tablemenbers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4383,7 +4493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4401,7 +4511,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4419,7 +4529,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4437,7 +4547,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4455,7 +4565,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4473,7 +4583,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4491,7 +4601,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4509,7 +4619,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4527,7 +4637,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4545,7 +4655,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4563,7 +4673,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4581,7 +4691,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4599,7 +4709,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4617,7 +4727,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4635,7 +4745,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4653,7 +4763,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4671,7 +4781,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4689,7 +4799,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4707,7 +4817,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4725,9 +4835,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4854,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -4759,7 +4869,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4771,7 +4881,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4785,31 +4895,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4820,22 +4930,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -4845,7 +4955,7 @@
         <v>create table Orderlists (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4863,7 +4973,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4881,7 +4991,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4899,7 +5009,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4917,7 +5027,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4935,7 +5045,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4953,7 +5063,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4971,7 +5081,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4989,7 +5099,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5007,7 +5117,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5025,7 +5135,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5043,7 +5153,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5061,7 +5171,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5079,7 +5189,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5097,7 +5207,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5115,7 +5225,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5133,7 +5243,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5151,7 +5261,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5169,7 +5279,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5187,7 +5297,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5205,9 +5315,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +5334,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -5239,7 +5349,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5251,7 +5361,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5265,31 +5375,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5300,22 +5410,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -5325,7 +5435,7 @@
         <v>create table Todolists (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5343,7 +5453,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5361,7 +5471,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5379,7 +5489,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -5397,7 +5507,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5415,7 +5525,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5433,7 +5543,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5451,7 +5561,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5469,7 +5579,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5487,7 +5597,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5505,7 +5615,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5523,7 +5633,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5541,7 +5651,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5559,7 +5669,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5577,7 +5687,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5595,7 +5705,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5613,7 +5723,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5631,7 +5741,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5649,7 +5759,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5667,7 +5777,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5685,9 +5795,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5704,7 +5814,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -5719,7 +5829,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5731,7 +5841,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5745,31 +5855,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5780,22 +5890,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -5805,7 +5915,7 @@
         <v>create table Aftersuveys (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -5823,7 +5933,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5841,7 +5951,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5859,7 +5969,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -5877,7 +5987,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5895,7 +6005,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5913,7 +6023,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5931,7 +6041,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5949,7 +6059,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5967,7 +6077,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5985,7 +6095,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6003,7 +6113,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6021,7 +6131,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6039,7 +6149,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6057,7 +6167,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6075,7 +6185,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6093,7 +6203,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6111,7 +6221,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6129,7 +6239,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6147,7 +6257,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6165,9 +6275,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6180,11 +6290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4797-91A8-4B46-B63D-306BFC9FB6A3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -6199,7 +6307,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6211,7 +6319,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6225,9 +6333,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -6237,9 +6345,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -6249,7 +6357,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6260,22 +6368,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -6285,16 +6393,16 @@
         <v>create table Employees (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6307,12 +6415,12 @@
         <v xml:space="preserve"> int </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -6327,12 +6435,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6347,17 +6455,15 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6366,10 +6472,10 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve"> int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.15">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6387,7 +6493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6405,7 +6511,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6423,7 +6529,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6441,7 +6547,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6459,7 +6565,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6477,7 +6583,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6495,7 +6601,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6513,7 +6619,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6531,7 +6637,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -6549,7 +6655,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -6567,7 +6673,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -6585,7 +6691,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -6603,7 +6709,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -6621,7 +6727,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -6639,7 +6745,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -6657,9 +6763,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6676,7 +6782,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -6691,7 +6797,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6703,7 +6809,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6717,31 +6823,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -6752,22 +6858,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -6777,7 +6883,7 @@
         <v>create table Reports (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6795,7 +6901,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6813,7 +6919,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6831,7 +6937,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -6849,7 +6955,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6867,7 +6973,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6885,7 +6991,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6903,7 +7009,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6921,7 +7027,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6939,7 +7045,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6957,7 +7063,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6975,7 +7081,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6993,7 +7099,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7011,7 +7117,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7029,7 +7135,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7047,7 +7153,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7065,7 +7171,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7083,7 +7189,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7101,7 +7207,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7119,7 +7225,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -7137,9 +7243,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7154,7 +7260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -7169,7 +7275,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7181,7 +7287,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7195,9 +7301,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -7205,9 +7311,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -7215,7 +7321,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7226,22 +7332,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -7251,7 +7357,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -7269,7 +7375,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7287,7 +7393,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -7305,7 +7411,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -7323,7 +7429,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -7341,7 +7447,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -7359,7 +7465,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -7377,7 +7483,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -7395,7 +7501,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -7413,7 +7519,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7431,7 +7537,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -7449,7 +7555,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -7467,7 +7573,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7485,7 +7591,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7503,7 +7609,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7521,7 +7627,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7539,7 +7645,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7557,7 +7663,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7575,7 +7681,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7593,7 +7699,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -7611,9 +7717,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -7628,7 +7734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -7643,7 +7749,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7655,7 +7761,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -7669,9 +7775,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -7679,9 +7785,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -7689,7 +7795,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7700,22 +7806,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -7725,7 +7831,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -7743,7 +7849,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7761,7 +7867,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -7779,7 +7885,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -7797,7 +7903,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -7815,7 +7921,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -7833,7 +7939,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -7851,7 +7957,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -7869,7 +7975,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -7887,7 +7993,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -7905,7 +8011,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -7923,7 +8029,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -7941,7 +8047,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -7959,7 +8065,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7977,7 +8083,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7995,7 +8101,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -8013,7 +8119,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -8031,7 +8137,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -8049,7 +8155,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -8067,7 +8173,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -8085,9 +8191,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8102,7 +8208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -8117,7 +8223,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8129,7 +8235,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8143,9 +8249,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -8153,9 +8259,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -8163,7 +8269,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -8174,22 +8280,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -8199,7 +8305,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -8217,7 +8323,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -8235,7 +8341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -8253,7 +8359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -8271,7 +8377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -8289,7 +8395,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -8307,7 +8413,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -8325,7 +8431,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -8343,7 +8449,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -8361,7 +8467,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -8379,7 +8485,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -8397,7 +8503,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -8415,7 +8521,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -8433,7 +8539,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -8451,7 +8557,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -8469,7 +8575,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -8487,7 +8593,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -8505,7 +8611,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -8523,7 +8629,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -8541,7 +8647,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -8559,9 +8665,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8576,7 +8682,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -8591,7 +8697,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8603,7 +8709,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8617,9 +8723,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -8627,9 +8733,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -8637,7 +8743,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -8648,22 +8754,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -8673,7 +8779,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -8691,7 +8797,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -8709,7 +8815,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -8727,7 +8833,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -8745,7 +8851,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -8763,7 +8869,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -8781,7 +8887,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -8799,7 +8905,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -8817,7 +8923,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -8835,7 +8941,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -8853,7 +8959,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -8871,7 +8977,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -8889,7 +8995,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -8907,7 +9013,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -8925,7 +9031,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -8943,7 +9049,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -8961,7 +9067,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -8979,7 +9085,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -8997,7 +9103,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -9015,7 +9121,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -9033,9 +9139,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9050,7 +9156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -9065,7 +9171,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9077,7 +9183,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9091,9 +9197,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -9101,9 +9207,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -9111,7 +9217,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -9122,22 +9228,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -9147,7 +9253,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -9165,7 +9271,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -9183,7 +9289,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -9201,7 +9307,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -9219,7 +9325,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -9237,7 +9343,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -9255,7 +9361,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -9273,7 +9379,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -9291,7 +9397,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -9309,7 +9415,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -9327,7 +9433,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -9345,7 +9451,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -9363,7 +9469,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -9381,7 +9487,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -9399,7 +9505,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -9417,7 +9523,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -9435,7 +9541,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -9453,7 +9559,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -9471,7 +9577,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -9489,7 +9595,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -9507,9 +9613,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9524,7 +9630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -9539,7 +9645,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9551,7 +9657,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -9565,9 +9671,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
@@ -9575,9 +9681,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
@@ -9585,7 +9691,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -9596,22 +9702,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -9621,7 +9727,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -9639,7 +9745,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -9657,7 +9763,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -9675,7 +9781,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -9693,7 +9799,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -9711,7 +9817,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -9729,7 +9835,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -9747,7 +9853,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -9765,7 +9871,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -9783,7 +9889,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -9801,7 +9907,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -9819,7 +9925,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -9837,7 +9943,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -9855,7 +9961,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -9873,7 +9979,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -9891,7 +9997,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -9909,7 +10015,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -9927,7 +10033,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -9945,7 +10051,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -9963,7 +10069,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -9981,9 +10087,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9998,8 +10104,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10039,7 +10146,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10055,7 +10162,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -10067,7 +10174,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -10088,22 +10195,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -10118,13 +10225,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -10142,12 +10249,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -10155,8 +10264,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>lname_1  ,</v>
+        <f t="shared" ref="L11:L17" si="0">C12&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>lname_1 varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -10164,10 +10273,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -10177,7 +10286,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>fname_1  ,</v>
       </c>
     </row>
@@ -10186,10 +10295,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -10199,7 +10308,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>lfurigana_1  ,</v>
       </c>
     </row>
@@ -10208,10 +10317,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -10221,7 +10330,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>ffurigana_1  ,</v>
       </c>
     </row>
@@ -10230,10 +10339,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -10243,7 +10352,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>lname_2  ,</v>
       </c>
     </row>
@@ -10252,10 +10361,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -10265,7 +10374,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>fname_2  ,</v>
       </c>
     </row>
@@ -10274,10 +10383,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -10287,7 +10396,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C18&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>lfurigana_2  ,</v>
       </c>
     </row>
@@ -10296,10 +10405,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -10318,10 +10427,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -10366,7 +10475,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10384,7 +10493,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10402,7 +10511,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10420,7 +10529,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10438,7 +10547,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10456,7 +10565,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10474,7 +10583,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10492,7 +10601,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -10510,13 +10619,13 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10529,11 +10638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0887139E-EAB8-41D5-8103-B52E365E9931}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -10548,7 +10657,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10560,7 +10669,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -10574,9 +10683,9 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -10586,9 +10695,9 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -10598,7 +10707,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -10609,22 +10718,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -10634,12 +10743,12 @@
         <v>create table Simulation_Results (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -10654,12 +10763,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -10674,12 +10783,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -10694,12 +10803,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -10714,12 +10823,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -10734,12 +10843,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -10754,12 +10863,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10774,12 +10883,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10794,12 +10903,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10814,12 +10923,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10834,12 +10943,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10854,12 +10963,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10874,12 +10983,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10894,12 +11003,12 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10914,7 +11023,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -10932,7 +11041,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -10950,7 +11059,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -10968,7 +11077,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -10986,7 +11095,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -11004,7 +11113,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -11022,9 +11131,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11041,7 +11150,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -11056,7 +11165,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11068,7 +11177,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11082,31 +11191,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11117,22 +11226,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -11142,7 +11251,7 @@
         <v>create table Simulation_Tables (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -11160,7 +11269,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -11178,7 +11287,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -11196,7 +11305,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -11214,7 +11323,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -11232,7 +11341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -11250,7 +11359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -11268,7 +11377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -11286,7 +11395,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -11304,7 +11413,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -11322,7 +11431,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -11340,7 +11449,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -11358,7 +11467,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -11376,7 +11485,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -11394,7 +11503,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -11412,7 +11521,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -11430,7 +11539,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -11448,7 +11557,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -11466,7 +11575,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -11484,7 +11593,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -11502,9 +11611,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11521,7 +11630,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -11536,7 +11645,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11548,7 +11657,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11562,31 +11671,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="13.15">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -11597,22 +11706,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -11622,7 +11731,7 @@
         <v>create table Simulation_Tablecovers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -11640,7 +11749,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -11658,7 +11767,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -11676,7 +11785,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -11694,7 +11803,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -11712,7 +11821,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -11730,7 +11839,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -11748,7 +11857,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -11766,7 +11875,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -11784,7 +11893,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -11802,7 +11911,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -11820,7 +11929,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -11838,7 +11947,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -11856,7 +11965,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -11874,7 +11983,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -11892,7 +12001,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -11910,7 +12019,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -11928,7 +12037,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -11946,7 +12055,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -11964,7 +12073,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -11982,9 +12091,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12001,7 +12110,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -12016,7 +12125,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12028,7 +12137,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -12042,31 +12151,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12077,22 +12186,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -12102,7 +12211,7 @@
         <v>create table Simulation_Chairs (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -12120,7 +12229,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -12138,7 +12247,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -12156,7 +12265,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -12174,7 +12283,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -12192,7 +12301,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -12210,7 +12319,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -12228,7 +12337,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -12246,7 +12355,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -12264,7 +12373,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -12282,7 +12391,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -12300,7 +12409,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -12318,7 +12427,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -12336,7 +12445,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -12354,7 +12463,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -12372,7 +12481,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -12390,7 +12499,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -12408,7 +12517,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -12426,7 +12535,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -12444,7 +12553,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -12462,9 +12571,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12481,7 +12590,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -12496,7 +12605,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12508,7 +12617,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -12522,31 +12631,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="18">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -12557,22 +12666,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -12582,7 +12691,7 @@
         <v>create table Simulation_Napkins (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -12600,7 +12709,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -12618,7 +12727,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -12636,7 +12745,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -12654,7 +12763,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -12672,7 +12781,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -12690,7 +12799,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -12708,7 +12817,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -12726,7 +12835,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -12744,7 +12853,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -12762,7 +12871,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -12780,7 +12889,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -12798,7 +12907,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -12816,7 +12925,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -12834,7 +12943,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -12852,7 +12961,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -12870,7 +12979,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -12888,7 +12997,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -12906,7 +13015,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -12924,7 +13033,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -12942,9 +13051,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12961,7 +13070,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
@@ -12976,7 +13085,7 @@
     <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="13.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12988,7 +13097,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -13002,31 +13111,31 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="18">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -13037,22 +13146,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -13062,7 +13171,7 @@
         <v>create table Simulation_Fiowers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -13080,7 +13189,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -13098,7 +13207,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -13116,7 +13225,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -13134,7 +13243,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -13152,7 +13261,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -13170,7 +13279,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -13188,7 +13297,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.15">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -13206,7 +13315,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.15">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -13224,7 +13333,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.15">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -13242,7 +13351,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.15">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -13260,7 +13369,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -13278,7 +13387,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.15">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -13296,7 +13405,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -13314,7 +13423,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -13332,7 +13441,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -13350,7 +13459,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -13368,7 +13477,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -13386,7 +13495,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -13404,7 +13513,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -13422,9 +13531,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
